--- a/biology/Zoologie/Anabate_à_croupion_roux/Anabate_à_croupion_roux.xlsx
+++ b/biology/Zoologie/Anabate_à_croupion_roux/Anabate_à_croupion_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_croupion_roux</t>
+          <t>Anabate_à_croupion_roux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philydor erythrocercum
 L’Anabate à croupion roux (Philydor erythrocercum) est une espèce de passereaux de la famille des Furnariidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_croupion_roux</t>
+          <t>Anabate_à_croupion_roux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se rencontre en Bolivie, au Brésil, en Colombie, en Équateur, au Guyana, en Guyane, au Pérou et au Suriname[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se rencontre en Bolivie, au Brésil, en Colombie, en Équateur, au Guyana, en Guyane, au Pérou et au Suriname.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_croupion_roux</t>
+          <t>Anabate_à_croupion_roux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (15 avril 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (15 avril 2024) :
 Philydor erythrocercum erythrocercum (Pelzeln, 1859)
 Philydor erythrocercum lyra Cherrie, 1916
 Philydor erythrocercum ochrogaster Hellmayr, 1917
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_croupion_roux</t>
+          <t>Anabate_à_croupion_roux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,12 +594,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Philydor erythrocercum (Pelzeln, 1859)[2].
-L'espèce a été initialement classée dans le genre Anabates sous le protonyme Anabates erythrocercus Pelzeln, 1859[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Anabate à croupion roux[2],[3].
-Philydor erythrocercum a pour synonyme[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Philydor erythrocercum (Pelzeln, 1859).
+L'espèce a été initialement classée dans le genre Anabates sous le protonyme Anabates erythrocercus Pelzeln, 1859.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Anabate à croupion roux,.
+Philydor erythrocercum a pour synonyme :
 Anabates erythrocercus Pelzeln, 1859</t>
         </is>
       </c>
